--- a/FlightData.xlsx
+++ b/FlightData.xlsx
@@ -15,12 +15,12 @@
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Time</t>
   </si>
@@ -82,7 +82,7 @@
     <t>PC2000</t>
   </si>
   <si>
-    <t>Pegasus  1</t>
+    <t xml:space="preserve">Pegasus  1</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -407,13 +407,545 @@
   </si>
   <si>
     <t>PC2490</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>01 May</t>
+  </si>
+  <si>
+    <t>PC2258</t>
+  </si>
+  <si>
+    <t>Departed 19:11</t>
+  </si>
+  <si>
+    <t>VF3334</t>
+  </si>
+  <si>
+    <t>Departed 19:08</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>VF3012</t>
+  </si>
+  <si>
+    <t>Departed 19:20</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>VF3174</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>PC2820</t>
+  </si>
+  <si>
+    <t>Departed 19:22</t>
+  </si>
+  <si>
+    <t>VF3110</t>
+  </si>
+  <si>
+    <t>19:20</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>Sivas</t>
+  </si>
+  <si>
+    <t>PC2752</t>
+  </si>
+  <si>
+    <t>Estimated 20:00</t>
+  </si>
+  <si>
+    <t>KYA</t>
+  </si>
+  <si>
+    <t>Konya</t>
+  </si>
+  <si>
+    <t>VF3254</t>
+  </si>
+  <si>
+    <t>Departed 19:31</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>GZP</t>
+  </si>
+  <si>
+    <t>Gazipasa</t>
+  </si>
+  <si>
+    <t>PC2072</t>
+  </si>
+  <si>
+    <t>Departed 19:36</t>
+  </si>
+  <si>
+    <t>PC2218</t>
+  </si>
+  <si>
+    <t>Estimated 20:20</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>PC271</t>
+  </si>
+  <si>
+    <t>Estimated 19:25</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>6Y3144</t>
+  </si>
+  <si>
+    <t>Estimated 19:45</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>J28106</t>
+  </si>
+  <si>
+    <t>AZAL Azerbaijan Airlines</t>
+  </si>
+  <si>
+    <t>LEJ</t>
+  </si>
+  <si>
+    <t>Leipzig/Halle</t>
+  </si>
+  <si>
+    <t>MB9405</t>
+  </si>
+  <si>
+    <t>MNG Airlines</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>PC1255</t>
+  </si>
+  <si>
+    <t>Estimated 19:30</t>
+  </si>
+  <si>
+    <t>OGU</t>
+  </si>
+  <si>
+    <t>Gulyali</t>
+  </si>
+  <si>
+    <t>PC2862</t>
+  </si>
+  <si>
+    <t>Estimated 19:22</t>
+  </si>
+  <si>
+    <t>VF3230</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>VF3032</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>PC2408</t>
+  </si>
+  <si>
+    <t>Estimated 19:50</t>
+  </si>
+  <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>PC651</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>PC2022</t>
+  </si>
+  <si>
+    <t>PC2294</t>
+  </si>
+  <si>
+    <t>Estimated 20:15</t>
+  </si>
+  <si>
+    <t>20:05</t>
+  </si>
+  <si>
+    <t>DOH</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>QR244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Airways  6</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>KHI</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>PC130</t>
+  </si>
+  <si>
+    <t>Estimated 20:10</t>
+  </si>
+  <si>
+    <t>FRU</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>PC704</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>PC2096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegasus  2</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>VF3066</t>
+  </si>
+  <si>
+    <t>Estimated 20:35</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>PC2740</t>
+  </si>
+  <si>
+    <t>Estimated 20:25</t>
+  </si>
+  <si>
+    <t>VF3038</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>SHJ</t>
+  </si>
+  <si>
+    <t>Sharjah</t>
+  </si>
+  <si>
+    <t>VF221</t>
+  </si>
+  <si>
+    <t>20:35</t>
+  </si>
+  <si>
+    <t>PC4078</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>TK7674</t>
+  </si>
+  <si>
+    <t>Turkish Airlines</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>VF7674</t>
+  </si>
+  <si>
+    <t>Estimated 20:50</t>
+  </si>
+  <si>
+    <t>20:40</t>
+  </si>
+  <si>
+    <t>PC614</t>
+  </si>
+  <si>
+    <t>Estimated 00:20</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>PC2672</t>
+  </si>
+  <si>
+    <t>Estimated 20:45</t>
+  </si>
+  <si>
+    <t>SZF</t>
+  </si>
+  <si>
+    <t>Samsun</t>
+  </si>
+  <si>
+    <t>PC2794</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>Almaty</t>
+  </si>
+  <si>
+    <t>PC100</t>
+  </si>
+  <si>
+    <t>Estimated 20:55</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>Shymkent</t>
+  </si>
+  <si>
+    <t>PC224</t>
+  </si>
+  <si>
+    <t>Estimated 21:10</t>
+  </si>
+  <si>
+    <t>PC2266</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>PC1173</t>
+  </si>
+  <si>
+    <t>Estimated 21:05</t>
+  </si>
+  <si>
+    <t>Estimated 20:04</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>20 May</t>
+  </si>
+  <si>
+    <t>VF3176</t>
+  </si>
+  <si>
+    <t>VF3232</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>HRG</t>
+  </si>
+  <si>
+    <t>Hurghada</t>
+  </si>
+  <si>
+    <t>PC620</t>
+  </si>
+  <si>
+    <t>Estimated 23:20</t>
+  </si>
+  <si>
+    <t>VF3280</t>
+  </si>
+  <si>
+    <t>23:10</t>
+  </si>
+  <si>
+    <t>IKA</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>PC512</t>
+  </si>
+  <si>
+    <t>Estimated 23:25</t>
+  </si>
+  <si>
+    <t>EBL</t>
+  </si>
+  <si>
+    <t>Erbil</t>
+  </si>
+  <si>
+    <t>PC816</t>
+  </si>
+  <si>
+    <t>VF3008</t>
+  </si>
+  <si>
+    <t>VF3260</t>
+  </si>
+  <si>
+    <t>23:25</t>
+  </si>
+  <si>
+    <t>PC2748</t>
+  </si>
+  <si>
+    <t>Estimated 23:40</t>
+  </si>
+  <si>
+    <t>PC2830</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>EVN</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>PC550</t>
+  </si>
+  <si>
+    <t>Estimated 23:45</t>
+  </si>
+  <si>
+    <t>23:35</t>
+  </si>
+  <si>
+    <t>BGW</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>PC656</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
+    <t>PC2212</t>
+  </si>
+  <si>
+    <t>VF149</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>PC2698</t>
+  </si>
+  <si>
+    <t>PC622</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>PC1930</t>
+  </si>
+  <si>
+    <t>PC758</t>
+  </si>
+  <si>
+    <t>VF131</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>21 May</t>
+  </si>
+  <si>
+    <t>PC2100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -755,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="A1:G1"/>
@@ -763,950 +1295,2791 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>